--- a/raw_data/TO USE CT_sample_types.xlsx
+++ b/raw_data/TO USE CT_sample_types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\LN2PEPF0000C39D\EXCELCNV\961ae4ae-0b54-40a0-bb00-35baf41c56bf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{071C5D5F-5C70-476D-90DC-8674655C4798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA222DD3-CDFB-46D8-9D1A-8552E8D83403}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{071C5D5F-5C70-476D-90DC-8674655C4798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6A76BB-7F04-48F1-9DA4-8B163E7CB73C}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{53F2EC6E-D6E4-4DC3-8E1A-0B72164E9334}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="85">
   <si>
     <t>sample_id</t>
   </si>
@@ -228,13 +228,76 @@
   </si>
   <si>
     <t>1-320-163</t>
+  </si>
+  <si>
+    <t>1-320-29</t>
+  </si>
+  <si>
+    <t>1-320-132-dup</t>
+  </si>
+  <si>
+    <t>1-320-136-dup</t>
+  </si>
+  <si>
+    <t>1-320-143-dup</t>
+  </si>
+  <si>
+    <t>1-320-146-dup</t>
+  </si>
+  <si>
+    <t>1-320-152-dup</t>
+  </si>
+  <si>
+    <t>1-320-159-dup</t>
+  </si>
+  <si>
+    <t>1-320-182-dup</t>
+  </si>
+  <si>
+    <t>1-320-183-dup</t>
+  </si>
+  <si>
+    <t>1-320-184-dup</t>
+  </si>
+  <si>
+    <t>1-320-189-dup</t>
+  </si>
+  <si>
+    <t>1-320-190-dup</t>
+  </si>
+  <si>
+    <t>1-320-191-dup</t>
+  </si>
+  <si>
+    <t>1-320-196-dup</t>
+  </si>
+  <si>
+    <t>1-320-196-dup2</t>
+  </si>
+  <si>
+    <t>1-320-196-dup3</t>
+  </si>
+  <si>
+    <t>1-320-197-dup</t>
+  </si>
+  <si>
+    <t>1-320-198-dup</t>
+  </si>
+  <si>
+    <t>1-320-201-dup</t>
+  </si>
+  <si>
+    <t>1-320-202-dup</t>
+  </si>
+  <si>
+    <t>1-320-89-dup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +431,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -711,8 +780,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1068,13 +1138,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B23A927-F982-41AF-A36F-2964523ED721}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1832,6 +1905,300 @@
         <v>28</v>
       </c>
     </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
